--- a/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>333,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>741,6%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,17; 3,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 12,02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 6,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 6,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,93; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,2; 592,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>363,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,09%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 5,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 6,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 158,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,65; 529,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,55; 1360,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,59; 319,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 5,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 3,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 4,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 175,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,35; 341,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,27; 378,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,95; 376,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 3,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 3,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,02; 353,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,23; 465,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,85; 312,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,76; 323,9</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>193,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>318,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>268,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 6,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 4,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 7,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,83; 152,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,04; 435,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,82; 877,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>128,15; 515,74</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,73%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 4,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 3,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,95; 124,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,6; 278,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,21; 296,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,09; 276,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>333,06%</t>
+          <t>201,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>205,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>741,6%</t>
+          <t>159,3%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,73</t>
+          <t>-0,95; 2,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 12,02</t>
+          <t>1,7; 5,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,52</t>
+          <t>1,01; 4,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,44</t>
+          <t>2,07; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,17; 113,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,93; —</t>
+          <t>56,66; 519,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 592,37</t>
+          <t>45,84; 662,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,52; 343,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>177,82%</t>
+          <t>167,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>363,42%</t>
+          <t>163,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>145,09%</t>
+          <t>240,45%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,11</t>
+          <t>0,14; 3,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,52</t>
+          <t>2,26; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,21</t>
+          <t>0,99; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,72</t>
+          <t>2,18; 4,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 158,42</t>
+          <t>1,8; 175,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,65; 529,78</t>
+          <t>70,35; 341,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,55; 1360,69</t>
+          <t>42,27; 378,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,59; 319,41</t>
+          <t>98,26; 624,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>141,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>167,33%</t>
+          <t>155,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>163,09%</t>
+          <t>117,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>175,32%</t>
+          <t>86,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,64</t>
+          <t>1,4; 5,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,77</t>
+          <t>0,86; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,88</t>
+          <t>0,46; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,38</t>
+          <t>-0,65; 3,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 175,28</t>
+          <t>36,02; 353,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,35; 341,08</t>
+          <t>25,23; 465,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,27; 378,59</t>
+          <t>8,85; 312,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,95; 376,28</t>
+          <t>-22,18; 284,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>141,64%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>155,45%</t>
+          <t>193,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>117,12%</t>
+          <t>318,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>111,27%</t>
+          <t>248,19%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,99</t>
+          <t>0,48; 4,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,7</t>
+          <t>2,5; 6,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,74</t>
+          <t>1,51; 4,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,58</t>
+          <t>2,87; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,02; 353,45</t>
+          <t>8,83; 152,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 465,02</t>
+          <t>83,04; 435,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 312,79</t>
+          <t>91,82; 877,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 323,9</t>
+          <t>109,83; 473,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>193,59%</t>
+          <t>179,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>318,21%</t>
+          <t>185,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>268,1%</t>
+          <t>190,69%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,14</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,15</t>
+          <t>2,84; 4,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,29</t>
+          <t>1,73; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,25</t>
+          <t>2,28; 4,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 152,97</t>
+          <t>34,95; 124,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,04; 435,98</t>
+          <t>112,6; 278,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,82; 877,01</t>
+          <t>106,21; 296,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>128,15; 515,74</t>
+          <t>116,92; 307,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>74,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>179,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>185,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>185,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 3,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 4,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,23</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 4,51</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>34,95; 124,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>112,6; 278,51</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>106,21; 296,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>120,09; 276,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,46</t>
+          <t>-1,11; 2,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,82</t>
+          <t>1,75; 5,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,74</t>
+          <t>1,08; 4,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,64</t>
+          <t>2,02; 5,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 113,23</t>
+          <t>-31,92; 131,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,66; 519,55</t>
+          <t>68,24; 520,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,84; 662,83</t>
+          <t>38,12; 564,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,52; 343,7</t>
+          <t>46,92; 339,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,64</t>
+          <t>0,31; 3,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,77</t>
+          <t>2,22; 5,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,88</t>
+          <t>0,82; 3,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,79</t>
+          <t>2,1; 4,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 175,28</t>
+          <t>4,64; 203,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,35; 341,08</t>
+          <t>62,67; 343,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,27; 378,59</t>
+          <t>31,36; 416,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,26; 624,05</t>
+          <t>100,15; 592,9</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,99</t>
+          <t>1,43; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,7</t>
+          <t>0,96; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,74</t>
+          <t>0,51; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,12</t>
+          <t>-0,61; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 353,45</t>
+          <t>34,3; 340,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,23; 465,02</t>
+          <t>22,15; 443,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 312,79</t>
+          <t>9,39; 315,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 284,08</t>
+          <t>-22,52; 263,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,14</t>
+          <t>0,48; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,15</t>
+          <t>2,34; 6,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,29</t>
+          <t>1,46; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,39</t>
+          <t>2,96; 6,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 152,97</t>
+          <t>9,5; 159,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,04; 435,98</t>
+          <t>73,04; 429,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,82; 877,01</t>
+          <t>92,19; 994,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>109,83; 473,52</t>
+          <t>106,59; 470,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,14</t>
+          <t>1,14; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,84</t>
+          <t>2,84; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,23</t>
+          <t>1,72; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,18</t>
+          <t>2,32; 4,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,95; 124,09</t>
+          <t>32,77; 123,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>112,6; 278,51</t>
+          <t>112,72; 268,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>106,21; 296,68</t>
+          <t>107,08; 320,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>116,92; 307,02</t>
+          <t>112,42; 307,66</t>
         </is>
       </c>
     </row>
